--- a/TABLOLAR.xlsx
+++ b/TABLOLAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HEDNOVA\Hednova\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E7D3F2-1226-4DFF-8EA6-D1D451F1F0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF1FDE4-EE05-4F78-9518-42A7D63FB4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5595" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>AÇIKLAMA</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>KR_GDEF00</t>
+  </si>
+  <si>
+    <t>aaaa</t>
   </si>
 </sst>
 </file>
@@ -560,7 +563,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +574,7 @@
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,7 +624,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -720,7 +723,9 @@
       <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
